--- a/results/mod1.income.fr.eff.MN.xlsx
+++ b/results/mod1.income.fr.eff.MN.xlsx
@@ -437,25 +437,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00328619176575858</v>
+        <v>-0.00328573482485617</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00493163060014287</v>
+        <v>0.00493159018397522</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0129520101270943</v>
+        <v>-0.0129514739719589</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0063796265955771</v>
+        <v>0.00638000432224652</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.66634994228144</v>
+        <v>-0.666262747365522</v>
       </c>
       <c r="I2" t="n">
-        <v>0.505187450401764</v>
+        <v>0.505243172265697</v>
       </c>
     </row>
     <row r="3">
@@ -466,25 +466,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0140940538964574</v>
+        <v>0.014094428957142</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00642625297176876</v>
+        <v>0.00642594783279606</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00149882951624715</v>
+        <v>0.00149980263832853</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0266892782766677</v>
+        <v>0.0266890552759555</v>
       </c>
       <c r="H3" t="n">
-        <v>2.19319935868914</v>
+        <v>2.19336187032338</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0282930187374676</v>
+        <v>0.0282813172224854</v>
       </c>
     </row>
     <row r="4">
@@ -495,25 +495,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00622814172875993</v>
+        <v>-0.00622827411880846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0064091967891751</v>
+        <v>0.00640911991169852</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0187899366053729</v>
+        <v>-0.0187899183183361</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00633365314785302</v>
+        <v>0.00633337008071917</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.971750740947606</v>
+        <v>-0.971783053620207</v>
       </c>
       <c r="I4" t="n">
-        <v>0.331174567029025</v>
+        <v>0.331158488212049</v>
       </c>
     </row>
     <row r="5">
@@ -524,25 +524,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00149509005859874</v>
+        <v>-0.00149553139370381</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00543848846635996</v>
+        <v>0.00543844972427457</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0121543315830007</v>
+        <v>-0.0121546969850138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00916415146580326</v>
+        <v>0.00916363419760613</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.274909116355895</v>
+        <v>-0.274992225638952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.783386063068607</v>
+        <v>0.783322211182835</v>
       </c>
     </row>
     <row r="6">
@@ -553,25 +553,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00133777361466014</v>
+        <v>-0.00133799298910081</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00500936958950917</v>
+        <v>0.00500933998797407</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0111559575953483</v>
+        <v>-0.0111561189518463</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00848041036602802</v>
+        <v>0.00848013297364466</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.267054285126369</v>
+        <v>-0.26709965630461</v>
       </c>
       <c r="I6" t="n">
-        <v>0.789427364817325</v>
+        <v>0.789392432211545</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +582,25 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00174685672868002</v>
+        <v>-0.00174689563067276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00480823709554003</v>
+        <v>0.00480820566845605</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.011170828265068</v>
+        <v>-0.0111708055711079</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00767711480770791</v>
+        <v>0.00767701430976242</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.363305031338898</v>
+        <v>-0.363315496700395</v>
       </c>
       <c r="I7" t="n">
-        <v>0.716377035291652</v>
+        <v>0.716369218436086</v>
       </c>
     </row>
     <row r="8">
@@ -611,25 +611,25 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00260717895676704</v>
+        <v>0.00260702371012677</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00174378857759131</v>
+        <v>0.00174359845835903</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.000810583851964254</v>
+        <v>-0.000810366471756484</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00602494176549833</v>
+        <v>0.00602441389201003</v>
       </c>
       <c r="H8" t="n">
-        <v>1.49512331384137</v>
+        <v>1.49519730166563</v>
       </c>
       <c r="I8" t="n">
-        <v>0.134882262416175</v>
+        <v>0.134862957553478</v>
       </c>
     </row>
     <row r="9">
@@ -640,25 +640,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00448662773573732</v>
+        <v>-0.00448685035377029</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00180357734170519</v>
+        <v>0.00180303705343719</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00802157436881198</v>
+        <v>-0.00802073804129842</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.000951681102662671</v>
+        <v>-0.000952962666242174</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.48762702435342</v>
+        <v>-2.48849592148805</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0128598520454596</v>
+        <v>0.0128284708572975</v>
       </c>
     </row>
     <row r="10">
@@ -669,25 +669,25 @@
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00226391439933245</v>
+        <v>-0.0022639134771737</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00207725208836061</v>
+        <v>0.00207725892572525</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.00633525367932985</v>
+        <v>-0.00633526615815956</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00180742488066495</v>
+        <v>0.00180743920381215</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.08986021100557</v>
+        <v>-1.08985617976502</v>
       </c>
       <c r="I10" t="n">
-        <v>0.275774726021767</v>
+        <v>0.275776502063891</v>
       </c>
     </row>
     <row r="11">
@@ -698,25 +698,25 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00194933440392062</v>
+        <v>0.00194962805627154</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00205698406360363</v>
+        <v>0.00205702858088072</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.00208228027751534</v>
+        <v>-0.00208207387742421</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00598094908535658</v>
+        <v>0.00598132998996729</v>
       </c>
       <c r="H11" t="n">
-        <v>0.947666264611493</v>
+        <v>0.947788511249952</v>
       </c>
       <c r="I11" t="n">
-        <v>0.343299380235252</v>
+        <v>0.343237130413179</v>
       </c>
     </row>
     <row r="12">
@@ -727,25 +727,25 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00195940591590996</v>
+        <v>0.00195960053768521</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00184845754535626</v>
+        <v>0.00184845822549215</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00166350429993962</v>
+        <v>-0.00166331101120622</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00558231613175953</v>
+        <v>0.00558251208657664</v>
       </c>
       <c r="H12" t="n">
-        <v>1.06002213620347</v>
+        <v>1.06012703487712</v>
       </c>
       <c r="I12" t="n">
-        <v>0.289134528817836</v>
+        <v>0.28908681006531</v>
       </c>
     </row>
     <row r="13">
@@ -756,25 +756,25 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000234622858472156</v>
+        <v>0.000234511526860473</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00153218232099048</v>
+        <v>0.00153225223607816</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00276839930841817</v>
+        <v>-0.00276864767108369</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00323764502536248</v>
+        <v>0.00323767072480463</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15312985619132</v>
+        <v>0.153050210232168</v>
       </c>
       <c r="I13" t="n">
-        <v>0.878295871694514</v>
+        <v>0.878358679645309</v>
       </c>
     </row>
     <row r="14">
@@ -785,25 +785,25 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00538619734145397</v>
+        <v>0.00538603452418841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00508188881288672</v>
+        <v>0.0050817894866555</v>
       </c>
       <c r="E14" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.00457412170524101</v>
+        <v>-0.00457408984667065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0153465163881489</v>
+        <v>0.0153461588950475</v>
       </c>
       <c r="H14" t="n">
-        <v>1.05988098909122</v>
+        <v>1.05986966566243</v>
       </c>
       <c r="I14" t="n">
-        <v>0.289198745478289</v>
+        <v>0.289203897631445</v>
       </c>
     </row>
     <row r="15">
@@ -814,25 +814,25 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.00458171180098518</v>
+        <v>-0.00458179921297698</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00650948110989313</v>
+        <v>0.00650938124893409</v>
       </c>
       <c r="E15" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0173400603344195</v>
+        <v>-0.0173399520225282</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00817663673244918</v>
+        <v>0.0081763535965742</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.703852077244971</v>
+        <v>-0.703876303715848</v>
       </c>
       <c r="I15" t="n">
-        <v>0.481524898293309</v>
+        <v>0.481509809653634</v>
       </c>
     </row>
     <row r="16">
@@ -843,25 +843,25 @@
         <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.00822830739244145</v>
+        <v>-0.00822801055519744</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00579069133181492</v>
+        <v>0.0057905444865726</v>
       </c>
       <c r="E16" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.019577853848387</v>
+        <v>-0.0195772691997567</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00312123906350408</v>
+        <v>0.00312124808936183</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.42095423861291</v>
+        <v>-1.42093901087833</v>
       </c>
       <c r="I16" t="n">
-        <v>0.155330063399218</v>
+        <v>0.155334490665939</v>
       </c>
     </row>
     <row r="17">
@@ -872,25 +872,25 @@
         <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00245533963776452</v>
+        <v>-0.00245525392322838</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00498297880554353</v>
+        <v>0.00498291849981507</v>
       </c>
       <c r="E17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0122217986323563</v>
+        <v>-0.0122215947207643</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00731111935682721</v>
+        <v>0.0073110868743075</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.492745350438371</v>
+        <v>-0.492734112211449</v>
       </c>
       <c r="I17" t="n">
-        <v>0.622192529460255</v>
+        <v>0.622200471209119</v>
       </c>
     </row>
     <row r="18">
@@ -901,25 +901,25 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.000238319513558831</v>
+        <v>-0.000238305298162293</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00491257239507979</v>
+        <v>0.00491252210142211</v>
       </c>
       <c r="E18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0098667844793609</v>
+        <v>-0.00986667169020665</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00939014545224323</v>
+        <v>0.00939006109388206</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0485121631586582</v>
+        <v>-0.0485097661124633</v>
       </c>
       <c r="I18" t="n">
-        <v>0.961308071057026</v>
+        <v>0.961309981374065</v>
       </c>
     </row>
     <row r="19">
@@ -930,25 +930,25 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>0.010117481003296</v>
+        <v>0.0101173344653767</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00496596275446099</v>
+        <v>0.00496575421111505</v>
       </c>
       <c r="E19" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000384372855985159</v>
+        <v>0.000384635055513095</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0198505891506069</v>
+        <v>0.0198500338752403</v>
       </c>
       <c r="H19" t="n">
-        <v>2.0373654623582</v>
+        <v>2.03742151448629</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0416134322335412</v>
+        <v>0.041607819686408</v>
       </c>
     </row>
     <row r="20">
@@ -959,25 +959,25 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00470718453246246</v>
+        <v>-0.00470732340945897</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00672926144229827</v>
+        <v>0.00672916588788041</v>
       </c>
       <c r="E20" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0178962946019211</v>
+        <v>-0.0178962461957001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00848192553699621</v>
+        <v>0.00848159937678213</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.69950983073334</v>
+        <v>-0.699540401870179</v>
       </c>
       <c r="I20" t="n">
-        <v>0.484233471519735</v>
+        <v>0.484214373258875</v>
       </c>
     </row>
     <row r="21">
@@ -988,25 +988,25 @@
         <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0050257143597349</v>
+        <v>-0.00502577939039478</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00849610841137455</v>
+        <v>0.00849592864332049</v>
       </c>
       <c r="E21" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0216777808547768</v>
+        <v>-0.0216774935465252</v>
       </c>
       <c r="G21" t="n">
-        <v>0.011626352135307</v>
+        <v>0.0116259347657356</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.591531336041627</v>
+        <v>-0.591551506773312</v>
       </c>
       <c r="I21" t="n">
-        <v>0.554164465442513</v>
+        <v>0.554150954760296</v>
       </c>
     </row>
     <row r="22">
@@ -1017,25 +1017,25 @@
         <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0167203635205338</v>
+        <v>0.0167201981511796</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00812486808210573</v>
+        <v>0.00812472079423291</v>
       </c>
       <c r="E22" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F22" t="n">
-        <v>0.000795914700467578</v>
+        <v>0.000796038010039427</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0326448123406001</v>
+        <v>0.0326443582923198</v>
       </c>
       <c r="H22" t="n">
-        <v>2.05792430739385</v>
+        <v>2.05794126033819</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0395973999750361</v>
+        <v>0.039595772375093</v>
       </c>
     </row>
     <row r="23">
@@ -1046,25 +1046,25 @@
         <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0020010952924426</v>
+        <v>0.00200115726066071</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00697105895754914</v>
+        <v>0.00697102406937233</v>
       </c>
       <c r="E23" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.011661929198459</v>
+        <v>-0.0116617988506709</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0156641197833442</v>
+        <v>0.0156641133719923</v>
       </c>
       <c r="H23" t="n">
-        <v>0.287057576851443</v>
+        <v>0.287067902900081</v>
       </c>
       <c r="I23" t="n">
-        <v>0.774068234489001</v>
+        <v>0.774060328063086</v>
       </c>
     </row>
     <row r="24">
@@ -1075,25 +1075,25 @@
         <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.000383312787690975</v>
+        <v>-0.000383302250422095</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00664413786860824</v>
+        <v>0.00664410089640056</v>
       </c>
       <c r="E24" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0134055837184818</v>
+        <v>-0.0134055007170175</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0126389581430999</v>
+        <v>0.0126388962161733</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0576918774521559</v>
+        <v>-0.0576906125296425</v>
       </c>
       <c r="I24" t="n">
-        <v>0.953994063775515</v>
+        <v>0.953995071359502</v>
       </c>
     </row>
     <row r="25">
@@ -1104,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00860524713308821</v>
+        <v>-0.00860495036156435</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00650272091696697</v>
+        <v>0.00650259184936954</v>
       </c>
       <c r="E25" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0213503459318587</v>
+        <v>-0.0213497961924923</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00413985166568233</v>
+        <v>0.00413989546936364</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.32333022483485</v>
+        <v>-1.32331085217945</v>
       </c>
       <c r="I25" t="n">
-        <v>0.185725584539352</v>
+        <v>0.185732024243376</v>
       </c>
     </row>
   </sheetData>
